--- a/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397D7FC0-EFD0-4A90-AD1D-00FCFFC22904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6C21A1-8CA7-45E0-8F06-ADD565E84EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77875E30-631D-4C46-B0C3-4826A5DF9FAE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97177583-CAC7-42E0-8D1A-660C14C511AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -86,1255 +86,1255 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A965221-A499-4FD3-9794-119319A750B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E0087-9140-4AD8-A256-4E323AB01E68}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2146,10 +2146,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -2158,13 +2158,13 @@
         <v>16811</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2179,13 @@
         <v>40689</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -2194,13 +2194,13 @@
         <v>29729</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -2209,13 +2209,13 @@
         <v>70417</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2230,13 @@
         <v>27221</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -2245,13 +2245,13 @@
         <v>37781</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -2260,13 +2260,13 @@
         <v>65002</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2281,13 @@
         <v>12960</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -2296,13 +2296,13 @@
         <v>31315</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -2311,13 +2311,13 @@
         <v>44275</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2332,13 @@
         <v>4733</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2347,13 +2347,13 @@
         <v>7630</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2362,13 +2362,13 @@
         <v>12363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>2194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2398,13 +2398,13 @@
         <v>6423</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2413,13 +2413,13 @@
         <v>8617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>460</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2449,13 +2449,13 @@
         <v>824</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -2464,13 +2464,13 @@
         <v>1284</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2536,13 @@
         <v>99645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -2551,13 +2551,13 @@
         <v>122549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -2566,18 +2566,18 @@
         <v>222194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="5">
         <v>15</v>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>2006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>88</v>
@@ -2721,13 +2721,13 @@
         <v>2006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2757,13 +2757,13 @@
         <v>686</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2793,13 @@
         <v>7113</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2808,10 +2808,10 @@
         <v>8121</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>98</v>
@@ -2826,10 +2826,10 @@
         <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2844,13 @@
         <v>29262</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2859,13 +2859,13 @@
         <v>29109</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -2874,13 +2874,13 @@
         <v>58371</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2895,13 @@
         <v>236849</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>290</v>
@@ -2910,13 +2910,13 @@
         <v>198584</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>521</v>
@@ -2925,13 +2925,13 @@
         <v>435432</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2946,13 @@
         <v>174536</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>344</v>
@@ -2961,13 +2961,13 @@
         <v>195260</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>564</v>
@@ -2976,13 +2976,13 @@
         <v>369796</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2997,13 @@
         <v>61067</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>184</v>
@@ -3012,13 +3012,13 @@
         <v>92366</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -3027,13 +3027,13 @@
         <v>153434</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3048,13 @@
         <v>26572</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H27" s="7">
         <v>76</v>
@@ -3063,13 +3063,13 @@
         <v>39205</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M27" s="7">
         <v>108</v>
@@ -3078,13 +3078,13 @@
         <v>65776</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3099,13 @@
         <v>1474</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>7728</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3129,13 +3129,13 @@
         <v>9202</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3150,13 @@
         <v>816</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3165,13 +3165,13 @@
         <v>4922</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3180,7 +3180,7 @@
         <v>5738</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>160</v>
@@ -3207,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3252,13 +3252,13 @@
         <v>538200</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="7">
         <v>972</v>
@@ -3267,13 +3267,13 @@
         <v>578899</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" s="7">
         <v>1572</v>
@@ -3282,13 +3282,13 @@
         <v>1117098</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3407,13 @@
         <v>3293</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3422,13 +3422,13 @@
         <v>2246</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3437,13 +3437,13 @@
         <v>5538</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>174</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3473,7 +3473,7 @@
         <v>4617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>90</v>
@@ -3488,13 +3488,13 @@
         <v>5271</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3509,13 @@
         <v>71317</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -3524,13 +3524,13 @@
         <v>11760</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -3539,13 +3539,13 @@
         <v>83077</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,16 +3557,16 @@
         <v>59</v>
       </c>
       <c r="D37" s="7">
-        <v>81054</v>
+        <v>81055</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -3575,13 +3575,13 @@
         <v>76534</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>149</v>
@@ -3590,13 +3590,13 @@
         <v>157588</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,16 +3608,16 @@
         <v>378</v>
       </c>
       <c r="D38" s="7">
-        <v>421488</v>
+        <v>421489</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H38" s="7">
         <v>490</v>
@@ -3626,13 +3626,13 @@
         <v>394102</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>868</v>
@@ -3641,13 +3641,13 @@
         <v>815590</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3662,13 @@
         <v>273553</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H39" s="7">
         <v>482</v>
@@ -3677,13 +3677,13 @@
         <v>305836</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M39" s="7">
         <v>787</v>
@@ -3692,13 +3692,13 @@
         <v>579389</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3713,13 @@
         <v>111618</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>242</v>
@@ -3728,13 +3728,13 @@
         <v>140825</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>370</v>
@@ -3743,13 +3743,13 @@
         <v>252443</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3764,13 @@
         <v>37007</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>87</v>
@@ -3779,13 +3779,13 @@
         <v>53944</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M41" s="7">
         <v>131</v>
@@ -3794,13 +3794,13 @@
         <v>90951</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,10 +3818,10 @@
         <v>13</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H42" s="7">
         <v>29</v>
@@ -3830,13 +3830,13 @@
         <v>18947</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>37</v>
@@ -3845,13 +3845,13 @@
         <v>27326</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3866,13 @@
         <v>2792</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H43" s="7">
         <v>6</v>
@@ -3881,13 +3881,13 @@
         <v>3421</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M43" s="7">
         <v>10</v>
@@ -3896,13 +3896,13 @@
         <v>6213</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,16 +3965,16 @@
         <v>948</v>
       </c>
       <c r="D45" s="7">
-        <v>1012059</v>
+        <v>1012060</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" s="7">
         <v>1448</v>
@@ -3983,13 +3983,13 @@
         <v>1013008</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M45" s="7">
         <v>2396</v>
@@ -3998,18 +3998,18 @@
         <v>2025067</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B46" s="5">
         <v>15</v>
@@ -4027,7 +4027,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4072,13 @@
         <v>1099</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4123,13 @@
         <v>1903</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -4153,13 +4153,13 @@
         <v>2559</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>166</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4174,13 @@
         <v>1551</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4225,13 @@
         <v>22064</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H50" s="7">
         <v>25</v>
@@ -4240,13 +4240,13 @@
         <v>22633</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M50" s="7">
         <v>44</v>
@@ -4255,13 +4255,13 @@
         <v>44697</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4276,13 @@
         <v>70833</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H51" s="7">
         <v>90</v>
@@ -4291,13 +4291,13 @@
         <v>70556</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M51" s="7">
         <v>147</v>
@@ -4306,13 +4306,13 @@
         <v>141389</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4327,13 @@
         <v>228383</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H52" s="7">
         <v>333</v>
@@ -4342,13 +4342,13 @@
         <v>247073</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M52" s="7">
         <v>538</v>
@@ -4357,13 +4357,13 @@
         <v>475456</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4378,13 @@
         <v>199690</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H53" s="7">
         <v>306</v>
@@ -4393,13 +4393,13 @@
         <v>219412</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M53" s="7">
         <v>513</v>
@@ -4408,13 +4408,13 @@
         <v>419102</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4429,13 @@
         <v>108620</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H54" s="7">
         <v>161</v>
@@ -4444,13 +4444,13 @@
         <v>213933</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M54" s="7">
         <v>268</v>
@@ -4459,13 +4459,13 @@
         <v>322553</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4480,13 @@
         <v>21209</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H55" s="7">
         <v>55</v>
@@ -4495,13 +4495,13 @@
         <v>38227</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
@@ -4510,13 +4510,13 @@
         <v>59436</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4531,13 @@
         <v>7649</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="H56" s="7">
         <v>16</v>
@@ -4546,13 +4546,13 @@
         <v>12437</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="M56" s="7">
         <v>25</v>
@@ -4561,13 +4561,13 @@
         <v>20086</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4603,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4612,13 +4612,13 @@
         <v>705</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4633,13 @@
         <v>1349</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -4648,13 +4648,13 @@
         <v>1122</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4663,13 +4663,13 @@
         <v>2471</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4684,13 @@
         <v>664349</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" s="7">
         <v>991</v>
@@ -4699,13 +4699,13 @@
         <v>828039</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M59" s="7">
         <v>1622</v>
@@ -4714,18 +4714,18 @@
         <v>1492387</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B60" s="5">
         <v>15</v>
@@ -4743,7 +4743,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -4767,13 +4767,13 @@
         <v>1557</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4839,13 +4839,13 @@
         <v>2185</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="H62" s="7">
         <v>7</v>
@@ -4854,13 +4854,13 @@
         <v>6030</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="M62" s="7">
         <v>8</v>
@@ -4869,13 +4869,13 @@
         <v>8215</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H63" s="7">
         <v>3</v>
@@ -4905,13 +4905,13 @@
         <v>1697</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="M63" s="7">
         <v>4</v>
@@ -4920,13 +4920,13 @@
         <v>2474</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4941,13 @@
         <v>19587</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H64" s="7">
         <v>37</v>
@@ -4956,13 +4956,13 @@
         <v>29283</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="M64" s="7">
         <v>52</v>
@@ -4971,13 +4971,13 @@
         <v>48871</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4992,13 @@
         <v>101281</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H65" s="7">
         <v>124</v>
@@ -5007,13 +5007,13 @@
         <v>128444</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M65" s="7">
         <v>206</v>
@@ -5022,13 +5022,13 @@
         <v>229725</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>336585</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H66" s="7">
         <v>480</v>
@@ -5058,13 +5058,13 @@
         <v>371436</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M66" s="7">
         <v>805</v>
@@ -5073,13 +5073,13 @@
         <v>708021</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5094,13 @@
         <v>284596</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H67" s="7">
         <v>458</v>
@@ -5109,13 +5109,13 @@
         <v>328174</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M67" s="7">
         <v>775</v>
@@ -5124,13 +5124,13 @@
         <v>612770</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5145,13 @@
         <v>147167</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H68" s="7">
         <v>273</v>
@@ -5160,13 +5160,13 @@
         <v>175106</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M68" s="7">
         <v>453</v>
@@ -5175,13 +5175,13 @@
         <v>322273</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>45252</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H69" s="7">
         <v>124</v>
@@ -5211,13 +5211,13 @@
         <v>76475</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M69" s="7">
         <v>181</v>
@@ -5226,13 +5226,13 @@
         <v>121727</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5247,13 @@
         <v>18308</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H70" s="7">
         <v>35</v>
@@ -5262,13 +5262,13 @@
         <v>20532</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M70" s="7">
         <v>55</v>
@@ -5277,13 +5277,13 @@
         <v>38839</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>373</v>
+        <v>249</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5298,13 @@
         <v>4817</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H71" s="7">
         <v>4</v>
@@ -5316,10 +5316,10 @@
         <v>163</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>376</v>
+        <v>157</v>
       </c>
       <c r="M71" s="7">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>6647</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>377</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5349,13 @@
         <v>2254</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -5364,13 +5364,13 @@
         <v>1341</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M72" s="7">
         <v>5</v>
@@ -5379,13 +5379,13 @@
         <v>3596</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5400,13 @@
         <v>964368</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" s="7">
         <v>1548</v>
@@ -5415,13 +5415,13 @@
         <v>1140348</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M73" s="7">
         <v>2553</v>
@@ -5430,13 +5430,13 @@
         <v>2104716</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5453,13 @@
         <v>1557</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5483,13 +5483,13 @@
         <v>1557</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5504,13 @@
         <v>1099</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="H75" s="7">
         <v>2</v>
@@ -5525,7 +5525,7 @@
         <v>10</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M75" s="7">
         <v>3</v>
@@ -5534,13 +5534,13 @@
         <v>3160</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5555,13 @@
         <v>7381</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>316</v>
+        <v>162</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="H76" s="7">
         <v>13</v>
@@ -5570,13 +5570,13 @@
         <v>10938</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="M76" s="7">
         <v>19</v>
@@ -5585,13 +5585,13 @@
         <v>18319</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>162</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="H77" s="7">
         <v>7</v>
@@ -5621,13 +5621,13 @@
         <v>7000</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="M77" s="7">
         <v>10</v>
@@ -5636,13 +5636,13 @@
         <v>9982</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5657,13 @@
         <v>120786</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H78" s="7">
         <v>90</v>
@@ -5672,13 +5672,13 @@
         <v>74517</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M78" s="7">
         <v>148</v>
@@ -5687,13 +5687,13 @@
         <v>195303</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5708,13 @@
         <v>293113</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>130</v>
+        <v>383</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H79" s="7">
         <v>350</v>
@@ -5723,13 +5723,13 @@
         <v>310771</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M79" s="7">
         <v>582</v>
@@ -5738,13 +5738,13 @@
         <v>603884</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>386</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5759,13 @@
         <v>1263993</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H80" s="7">
         <v>1642</v>
@@ -5774,13 +5774,13 @@
         <v>1240923</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M80" s="7">
         <v>2823</v>
@@ -5789,13 +5789,13 @@
         <v>2504916</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5810,13 @@
         <v>959596</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H81" s="7">
         <v>1662</v>
@@ -5825,13 +5825,13 @@
         <v>1086463</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="M81" s="7">
         <v>2747</v>
@@ -5840,13 +5840,13 @@
         <v>2046060</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5861,13 @@
         <v>441432</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>30</v>
+        <v>411</v>
       </c>
       <c r="H82" s="7">
         <v>931</v>
@@ -5876,13 +5876,13 @@
         <v>653545</v>
       </c>
       <c r="J82" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="L82" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M82" s="7">
         <v>1446</v>
@@ -5891,13 +5891,13 @@
         <v>1094978</v>
       </c>
       <c r="O82" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P82" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="Q82" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5912,13 @@
         <v>134773</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H83" s="7">
         <v>358</v>
@@ -5927,7 +5927,7 @@
         <v>215481</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>421</v>
@@ -5942,7 +5942,7 @@
         <v>350254</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>423</v>
@@ -5963,13 +5963,13 @@
         <v>38005</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>425</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>426</v>
+        <v>230</v>
       </c>
       <c r="H84" s="7">
         <v>104</v>
@@ -5978,13 +5978,13 @@
         <v>66066</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M84" s="7">
         <v>146</v>
@@ -5993,13 +5993,13 @@
         <v>104071</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6014,13 @@
         <v>8885</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H85" s="7">
         <v>22</v>
@@ -6029,13 +6029,13 @@
         <v>11702</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K85" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L85" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M85" s="7">
         <v>32</v>
@@ -6044,13 +6044,13 @@
         <v>20587</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6065,13 @@
         <v>5018</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="H86" s="7">
         <v>7</v>
@@ -6086,7 +6086,7 @@
         <v>166</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="M86" s="7">
         <v>12</v>
@@ -6095,13 +6095,13 @@
         <v>8393</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6116,13 @@
         <v>3278620</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H87" s="7">
         <v>5188</v>
@@ -6131,13 +6131,13 @@
         <v>3682842</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M87" s="7">
         <v>8487</v>
@@ -6146,13 +6146,13 @@
         <v>6961463</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,62</t>
+          <t>7,28; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,06</t>
+          <t>7,0; 7,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,24</t>
+          <t>7,16; 7,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,67</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,44</t>
+          <t>7,41; 8,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,21</t>
+          <t>7,21; 7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,3</t>
+          <t>7,34; 8,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,19</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,98</t>
+          <t>7,33; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,37</t>
+          <t>6,52; 7,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,69</t>
+          <t>6,76; 7,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,29</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,54</t>
+          <t>7,2; 7,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,37</t>
+          <t>7,19; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,4</t>
+          <t>7,22; 7,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,4</t>
+          <t>7,37; 8,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,38</t>
+          <t>6,94; 7,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,37</t>
+          <t>7,23; 7,68</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 7,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 7,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,16</t>
+          <t>6,99; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,28</t>
+          <t>7,16; 7,29</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,86</t>
+          <t>7,42; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 8,55</t>
+          <t>7,35; 8,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,55</t>
+          <t>7,31; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,35</t>
+          <t>6,49; 7,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,39</t>
+          <t>6,75; 7,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,4</t>
+          <t>7,19; 7,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,35</t>
+          <t>7,2; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,35</t>
+          <t>7,23; 7,36</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,12</t>
+          <t>7,37; 8,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,26</t>
+          <t>6,96; 7,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,68</t>
+          <t>7,26; 7,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Habitat-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y los fines de semana</t>
+          <t>Número medio de horas que duerme habitualmente al día durante los fines de semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
